--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
@@ -534,16 +534,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.55477</v>
+        <v>0.3971766666666667</v>
       </c>
       <c r="H2">
-        <v>4.66431</v>
+        <v>1.19153</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6156346666666667</v>
+        <v>0.481166</v>
       </c>
       <c r="N2">
-        <v>1.846904</v>
+        <v>1.443498</v>
       </c>
       <c r="O2">
-        <v>0.2237379936733492</v>
+        <v>0.1587222767546368</v>
       </c>
       <c r="P2">
-        <v>0.2422735703312657</v>
+        <v>0.1690961013073894</v>
       </c>
       <c r="Q2">
-        <v>0.9571703106933331</v>
+        <v>0.1911079079933333</v>
       </c>
       <c r="R2">
-        <v>8.614532796239999</v>
+        <v>1.71997117194</v>
       </c>
       <c r="S2">
-        <v>0.2237379936733492</v>
+        <v>0.1587222767546368</v>
       </c>
       <c r="T2">
-        <v>0.2422735703312657</v>
+        <v>0.1690961013073894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.55477</v>
+        <v>0.3971766666666667</v>
       </c>
       <c r="H3">
-        <v>4.66431</v>
+        <v>1.19153</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.046115666666666</v>
+        <v>1.046115666666667</v>
       </c>
       <c r="N3">
         <v>3.138347</v>
       </c>
       <c r="O3">
-        <v>0.3801862258302404</v>
+        <v>0.3450822800489395</v>
       </c>
       <c r="P3">
-        <v>0.4116827580796926</v>
+        <v>0.3676362850864647</v>
       </c>
       <c r="Q3">
-        <v>1.626469255063333</v>
+        <v>0.4154927334344445</v>
       </c>
       <c r="R3">
-        <v>14.63822329557</v>
+        <v>3.73943460091</v>
       </c>
       <c r="S3">
-        <v>0.3801862258302404</v>
+        <v>0.3450822800489395</v>
       </c>
       <c r="T3">
-        <v>0.4116827580796926</v>
+        <v>0.3676362850864647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.55477</v>
+        <v>0.3971766666666667</v>
       </c>
       <c r="H4">
-        <v>4.66431</v>
+        <v>1.19153</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2522123333333333</v>
+        <v>0.6239283333333333</v>
       </c>
       <c r="N4">
-        <v>0.756637</v>
+        <v>1.871785</v>
       </c>
       <c r="O4">
-        <v>0.09166066255691792</v>
+        <v>0.2058153019922285</v>
       </c>
       <c r="P4">
-        <v>0.09925429120015868</v>
+        <v>0.2192670485069268</v>
       </c>
       <c r="Q4">
-        <v>0.3921321694966666</v>
+        <v>0.2478097756722222</v>
       </c>
       <c r="R4">
-        <v>3.52918952547</v>
+        <v>2.23028798105</v>
       </c>
       <c r="S4">
-        <v>0.09166066255691792</v>
+        <v>0.2058153019922285</v>
       </c>
       <c r="T4">
-        <v>0.09925429120015868</v>
+        <v>0.2192670485069268</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.55477</v>
+        <v>0.3971766666666667</v>
       </c>
       <c r="H5">
-        <v>4.66431</v>
+        <v>1.19153</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6315455000000001</v>
+        <v>0.5579350000000001</v>
       </c>
       <c r="N5">
-        <v>1.263091</v>
+        <v>1.11587</v>
       </c>
       <c r="O5">
-        <v>0.2295204132160072</v>
+        <v>0.1840460744963241</v>
       </c>
       <c r="P5">
-        <v>0.1656900229916058</v>
+        <v>0.130716680290431</v>
       </c>
       <c r="Q5">
-        <v>0.981907997035</v>
+        <v>0.2215987635166667</v>
       </c>
       <c r="R5">
-        <v>5.89144798221</v>
+        <v>1.3295925811</v>
       </c>
       <c r="S5">
-        <v>0.2295204132160072</v>
+        <v>0.1840460744963241</v>
       </c>
       <c r="T5">
-        <v>0.1656900229916058</v>
+        <v>0.130716680290431</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.55477</v>
+        <v>0.3971766666666667</v>
       </c>
       <c r="H6">
-        <v>4.66431</v>
+        <v>1.19153</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2060793333333334</v>
+        <v>0.3223513333333334</v>
       </c>
       <c r="N6">
-        <v>0.6182380000000001</v>
+        <v>0.9670540000000001</v>
       </c>
       <c r="O6">
-        <v>0.0748947047234854</v>
+        <v>0.1063340667078711</v>
       </c>
       <c r="P6">
-        <v>0.08109935739727731</v>
+        <v>0.1132838848087882</v>
       </c>
       <c r="Q6">
-        <v>0.3204059650866667</v>
+        <v>0.1280304280688889</v>
       </c>
       <c r="R6">
-        <v>2.88365368578</v>
+        <v>1.15227385262</v>
       </c>
       <c r="S6">
-        <v>0.0748947047234854</v>
+        <v>0.1063340667078711</v>
       </c>
       <c r="T6">
-        <v>0.08109935739727731</v>
+        <v>0.1132838848087882</v>
       </c>
     </row>
   </sheetData>
